--- a/Documents/QualityAssuranceDocs/Cognizance_DefectReport.xlsx
+++ b/Documents/QualityAssuranceDocs/Cognizance_DefectReport.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="199">
   <si>
     <t>Defect Status</t>
   </si>
@@ -560,9 +560,6 @@
   </si>
   <si>
     <t>1.0</t>
-  </si>
-  <si>
-    <t>25/07/2018</t>
   </si>
   <si>
     <t>15/03/2018</t>
@@ -635,11 +632,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +739,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1036,7 +1042,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1170,22 +1176,13 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="6" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,6 +1240,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2 2" xfId="2"/>
@@ -3761,7 +3776,7 @@
   <dimension ref="B3:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D19" sqref="D19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3859,10 +3874,10 @@
       </c>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
-      <c r="F8" s="67" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="68"/>
+      <c r="F8" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="65"/>
       <c r="H8" s="57"/>
       <c r="I8" s="10"/>
       <c r="N8" s="7"/>
@@ -3884,89 +3899,89 @@
     </row>
     <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="69" t="s">
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="69" t="s">
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="68"/>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="72" t="s">
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="72" t="s">
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="73"/>
-      <c r="M11" s="74"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="71"/>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="77"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="74"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="77"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="74"/>
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="78"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="13"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="78" t="s">
+      <c r="H14" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="78"/>
+      <c r="I14" s="75"/>
       <c r="J14" s="15"/>
       <c r="K14" s="14"/>
       <c r="L14" s="31" t="s">
@@ -3977,19 +3992,19 @@
     </row>
     <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="78"/>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -4029,20 +4044,20 @@
       <c r="C18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="82" t="s">
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="84"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4050,20 +4065,20 @@
       <c r="C19" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
+      <c r="D19" s="86">
+        <v>43346</v>
+      </c>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -4071,20 +4086,20 @@
       <c r="C20" s="35">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D20" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="66"/>
+      <c r="D20" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="62"/>
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -4092,20 +4107,20 @@
       <c r="C21" s="35">
         <v>1.2</v>
       </c>
-      <c r="D21" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
+      <c r="D21" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="62"/>
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -4113,35 +4128,35 @@
       <c r="C22" s="53">
         <v>1.3</v>
       </c>
-      <c r="D22" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="66"/>
+      <c r="D22" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="62"/>
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="62"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4190,7 +4205,8 @@
     <mergeCell ref="G19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4303,36 +4319,36 @@
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C19" s="40"/>
       <c r="D19" s="41"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="D20" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="E20" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="25" t="s">
@@ -4846,22 +4862,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -4901,7 +4917,7 @@
         <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
         <v>66</v>
@@ -4924,7 +4940,7 @@
         <v>173</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7" t="s">
         <v>65</v>
@@ -4947,7 +4963,7 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -4970,7 +4986,7 @@
         <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" t="s">
         <v>66</v>
@@ -4993,7 +5009,7 @@
         <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -5016,7 +5032,7 @@
         <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F11" t="s">
         <v>65</v>
@@ -5039,7 +5055,7 @@
         <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F12" t="s">
         <v>65</v>
@@ -5062,7 +5078,7 @@
         <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>
@@ -5085,7 +5101,7 @@
         <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F14" t="s">
         <v>66</v>
@@ -5108,7 +5124,7 @@
         <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F15" t="s">
         <v>65</v>
@@ -5131,7 +5147,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F16" t="s">
         <v>65</v>
@@ -5154,7 +5170,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F17" t="s">
         <v>65</v>
@@ -5177,7 +5193,7 @@
         <v>173</v>
       </c>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F18" t="s">
         <v>65</v>
@@ -5200,7 +5216,7 @@
         <v>173</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F19" t="s">
         <v>65</v>
@@ -5223,7 +5239,7 @@
         <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F20" t="s">
         <v>66</v>
@@ -5246,7 +5262,7 @@
         <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F21" t="s">
         <v>66</v>
@@ -5269,7 +5285,7 @@
         <v>173</v>
       </c>
       <c r="E22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F22" t="s">
         <v>65</v>
@@ -5292,7 +5308,7 @@
         <v>173</v>
       </c>
       <c r="E23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F23" t="s">
         <v>65</v>
@@ -5315,7 +5331,7 @@
         <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F24" t="s">
         <v>66</v>
@@ -5338,7 +5354,7 @@
         <v>123</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F25" s="46" t="s">
         <v>66</v>
@@ -5352,7 +5368,7 @@
         <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -5361,7 +5377,7 @@
         <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F26" t="s">
         <v>65</v>
@@ -5384,7 +5400,7 @@
         <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F27" t="s">
         <v>65</v>
@@ -5407,7 +5423,7 @@
         <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F28" t="s">
         <v>65</v>
@@ -5430,7 +5446,7 @@
         <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
@@ -5441,10 +5457,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C30" t="s">
         <v>64</v>
@@ -5453,7 +5469,7 @@
         <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F30" t="s">
         <v>66</v>
@@ -5476,7 +5492,7 @@
         <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F31" t="s">
         <v>65</v>
@@ -5499,7 +5515,7 @@
         <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F32" t="s">
         <v>66</v>
@@ -5522,7 +5538,7 @@
         <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F33" t="s">
         <v>65</v>
@@ -5545,7 +5561,7 @@
         <v>123</v>
       </c>
       <c r="E34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F34" t="s">
         <v>65</v>
@@ -5568,7 +5584,7 @@
         <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F35" t="s">
         <v>65</v>
@@ -5591,7 +5607,7 @@
         <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F36" t="s">
         <v>65</v>
@@ -5614,7 +5630,7 @@
         <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F37" t="s">
         <v>66</v>
@@ -5637,7 +5653,7 @@
         <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F38" t="s">
         <v>66</v>
@@ -5660,7 +5676,7 @@
         <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F39" t="s">
         <v>66</v>
@@ -5683,7 +5699,7 @@
         <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F40" t="s">
         <v>65</v>
@@ -5706,7 +5722,7 @@
         <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F41" t="s">
         <v>65</v>
@@ -5729,7 +5745,7 @@
         <v>123</v>
       </c>
       <c r="E42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F42" t="s">
         <v>66</v>
@@ -5752,7 +5768,7 @@
         <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F43" t="s">
         <v>65</v>
@@ -5775,7 +5791,7 @@
         <v>123</v>
       </c>
       <c r="E44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F44" t="s">
         <v>66</v>
@@ -5798,7 +5814,7 @@
         <v>123</v>
       </c>
       <c r="E45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F45" t="s">
         <v>66</v>
@@ -5809,10 +5825,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C46" t="s">
         <v>64</v>
@@ -5821,7 +5837,7 @@
         <v>123</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F46" t="s">
         <v>65</v>
@@ -5844,7 +5860,7 @@
         <v>123</v>
       </c>
       <c r="E47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F47" t="s">
         <v>66</v>
@@ -5867,7 +5883,7 @@
         <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F48" t="s">
         <v>65</v>
@@ -5890,7 +5906,7 @@
         <v>173</v>
       </c>
       <c r="E49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F49" t="s">
         <v>65</v>
@@ -5913,7 +5929,7 @@
         <v>173</v>
       </c>
       <c r="E50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F50" t="s">
         <v>65</v>
@@ -5936,7 +5952,7 @@
         <v>173</v>
       </c>
       <c r="E51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F51" t="s">
         <v>65</v>
@@ -5959,7 +5975,7 @@
         <v>123</v>
       </c>
       <c r="E52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F52" t="s">
         <v>65</v>
@@ -5982,7 +5998,7 @@
         <v>173</v>
       </c>
       <c r="E53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F53" t="s">
         <v>65</v>
@@ -6005,7 +6021,7 @@
         <v>173</v>
       </c>
       <c r="E54" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F54" t="s">
         <v>65</v>
@@ -6028,7 +6044,7 @@
         <v>123</v>
       </c>
       <c r="E55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F55" t="s">
         <v>66</v>
@@ -6051,7 +6067,7 @@
         <v>123</v>
       </c>
       <c r="E56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F56" t="s">
         <v>65</v>
@@ -6074,7 +6090,7 @@
         <v>123</v>
       </c>
       <c r="E57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F57" t="s">
         <v>65</v>
@@ -6097,7 +6113,7 @@
         <v>123</v>
       </c>
       <c r="E58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F58" t="s">
         <v>66</v>
@@ -6120,7 +6136,7 @@
         <v>123</v>
       </c>
       <c r="E59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F59" t="s">
         <v>66</v>
@@ -6143,7 +6159,7 @@
         <v>123</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F60" s="47" t="s">
         <v>66</v>
@@ -6166,7 +6182,7 @@
         <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F61" t="s">
         <v>65</v>
@@ -6189,7 +6205,7 @@
         <v>123</v>
       </c>
       <c r="E62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F62" t="s">
         <v>65</v>
@@ -6212,7 +6228,7 @@
         <v>123</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F63" s="48" t="s">
         <v>65</v>
@@ -6235,7 +6251,7 @@
         <v>123</v>
       </c>
       <c r="E64" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F64" s="49" t="s">
         <v>65</v>
@@ -6258,7 +6274,7 @@
         <v>123</v>
       </c>
       <c r="E65" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F65" s="49" t="s">
         <v>66</v>
@@ -6281,7 +6297,7 @@
         <v>123</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F66" s="49" t="s">
         <v>65</v>
@@ -6304,7 +6320,7 @@
         <v>123</v>
       </c>
       <c r="E67" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F67" s="49" t="s">
         <v>65</v>
@@ -6327,7 +6343,7 @@
         <v>123</v>
       </c>
       <c r="E68" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F68" s="49" t="s">
         <v>66</v>
@@ -6350,7 +6366,7 @@
         <v>173</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>65</v>
@@ -6373,7 +6389,7 @@
         <v>173</v>
       </c>
       <c r="E70" s="48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>65</v>
@@ -6396,7 +6412,7 @@
         <v>123</v>
       </c>
       <c r="E71" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F71" s="48" t="s">
         <v>65</v>
@@ -6419,7 +6435,7 @@
         <v>123</v>
       </c>
       <c r="E72" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F72" s="48" t="s">
         <v>65</v>
@@ -6442,7 +6458,7 @@
         <v>123</v>
       </c>
       <c r="E73" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F73" s="48" t="s">
         <v>65</v>
@@ -6465,7 +6481,7 @@
         <v>123</v>
       </c>
       <c r="E74" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F74" s="48" t="s">
         <v>65</v>
